--- a/storage/excel/violation-type.xlsx
+++ b/storage/excel/violation-type.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.abdupattoyev\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{482FAF60-1051-41EC-94A8-CDF7488FC9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47FDCAA-29D2-4FEA-B948-5EAAE8BBF4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{9405DA85-85DD-4375-A232-2BC6DE5BE1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -138,16 +138,110 @@
   </si>
   <si>
     <t>Boshqa holatlar.</t>
+  </si>
+  <si>
+    <t>Liftni davlat ro‘yxatidan o‘tkazilganligi;</t>
+  </si>
+  <si>
+    <t>Liftni texnik ko‘rikdan o‘tkazilganligi;</t>
+  </si>
+  <si>
+    <t>Liftdagi nosozliklar;</t>
+  </si>
+  <si>
+    <t>Lift hizmat ko‘rsatuvchi organga ko‘rsatma berish;</t>
+  </si>
+  <si>
+    <t>Tog‘-kon,geologiya va sanoat havfsizligiga malumotlar yuborish;</t>
+  </si>
+  <si>
+    <t>Ichki isitish tizimini gidravlik presslashi va keyinchalik uni tarmoqdagi suv bilan to‘ldirgan holda yuvilganligi</t>
+  </si>
+  <si>
+    <t>Issiqlik energiyasidan, isitish va issiq suv ta’minotidan boshqa maqsadlarda foydalanilgani</t>
+  </si>
+  <si>
+    <t>Xonadon ichidagi issiqlik tarmoqlariga o‘zboshimchalik bilan o‘zgartirish kiritilganligi</t>
+  </si>
+  <si>
+    <t>Isitish tizimidan tarmoq suvining oqishi va chiqib ketishiga yo‘l qo‘yilganligi</t>
+  </si>
+  <si>
+    <t>Xonadonning ichki qismida o‘zboshimchalik bilan issiq pol qilinganligi</t>
+  </si>
+  <si>
+    <t>Xonadonning ichki qismidagi isitish va issiq suv ta’minotini o‘zboshimchalik bilan o‘zgartirilganligi, qayta jihozlaganligi va uzib qo‘yilganligi</t>
+  </si>
+  <si>
+    <t>Isitish tizimi o‘zboshimchalik bilan uzib yoki to‘sib qo‘yilganligi</t>
+  </si>
+  <si>
+    <t>Xonadonda isitish radiatorlarni o‘zboshimchalik bilan o‘zgartirilganligi, balkon qismiga olib chiqilganligi, qo‘shimcha radiatorlar ulangani yoki istish yuzasini kengaytirilgani</t>
+  </si>
+  <si>
+    <t>Boshqarish faoliyati billing tizimida yuritilayotganligi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avariya-dispetcherlik xizmatlari tashkil etilganligi </t>
+  </si>
+  <si>
+    <t>Joylar mulkdorlariga belgilangan tartibda (shart, tartib va muddat) hisobotlar berilganligi</t>
+  </si>
+  <si>
+    <t>Umumiy mol-mulkni saqlash va ta’mirlash uchun xizmatlar va ishlar shakllantirilganligi hamda tasdiqlanganligi</t>
+  </si>
+  <si>
+    <t>Ko‘p kvartirali uyni boshqarish organi o‘zgarganda, boshqarish organlari o‘rtasida topshirish-qabul qilish dalolatnomasi mavjudligi</t>
+  </si>
+  <si>
+    <t>Olti oyda bir marta tayanch va to‘siq konstruksiyalar xatlovdan o‘tkazilib, tegishli hisobotlar berilganligi</t>
+  </si>
+  <si>
+    <t>Boshqarish organlarida boshqarish huquqini beruvchi tegishli malaka sertifikatining mavjudligi</t>
+  </si>
+  <si>
+    <t>Majburiy badal miqdorini oshirish bo‘yicha yig‘ilish bayonnomasining mavjudligi</t>
+  </si>
+  <si>
+    <t>Joy mulkdorlarining asosli murojaatlarini qanotlantirilmaganligi</t>
+  </si>
+  <si>
+    <t>Ko‘p kvartirali uyning yerto‘lasidan foydalanish tartibiga hamda yerto‘ladan foydalanish uchun belgilangan asosiy talablarga rioya etilishi</t>
+  </si>
+  <si>
+    <t>Boshqa holatlarda</t>
+  </si>
+  <si>
+    <t>Ichki isitish tizimini gidravlik presslanganligi va uni tarmoqdagi suv bilan yuvilganligi</t>
+  </si>
+  <si>
+    <t>Isitish va issiq suv ta'minoti tizimlarida tarmoq suvining tizimli aylanishini ta'minlamaganligi</t>
+  </si>
+  <si>
+    <t>Isitish va issiq suv ta’minoti tizimlaridan issiqlik manbasini chiqarib tashlash (sliv) holatiga yo‘l qo‘yilganligi</t>
+  </si>
+  <si>
+    <t>Issiqlik punkti (elevator bog‘lamasi)ning issiqlik manbaini taqsimlash parametrlari, jihoz va uskunalarining mavjudligi hamda o‘z vaqtida texnik xizmatlar ko‘rsatilganligi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issiqlik va issiq suv ta'minoti tizimining yotiq va tik quvurlarida nosozliklar mavjudligi </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,12 +267,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040F8141-9BD3-47B0-92C9-6270FE47F157}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +873,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
@@ -781,7 +884,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24">
@@ -792,7 +895,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25">
@@ -803,7 +906,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26">
@@ -814,7 +917,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27">
@@ -825,7 +928,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28">
@@ -836,7 +939,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29">
@@ -847,7 +950,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30">
@@ -858,7 +961,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31">
@@ -869,11 +972,352 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
       <c r="C32">
         <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
